--- a/public/ReportTechOut.xlsx
+++ b/public/ReportTechOut.xlsx
@@ -16,14 +16,17 @@
     <definedName name="_xlnm.Print_Area_0_0" localSheetId="0">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0" localSheetId="0">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0_0" localSheetId="0">'Pág.1'!$A$1:$AJ$67</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0" localSheetId="0">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName name="_xlnm.Print_Area_0" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName name="_xlnm.Print_Area_0_0" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0_0" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName name="_xlnm.Print_Area_0" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName name="_xlnm.Print_Area_0_0" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0_0" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>INFORME TECNICO</t>
   </si>
@@ -45,12 +48,6 @@
   </si>
   <si>
     <t>Código</t>
-  </si>
-  <si>
-    <t>Modo de falla</t>
-  </si>
-  <si>
-    <t>https://app.sendit.cl/Files/FormEntry/45206-d916f13f-f22e-4eb0-825a-a79a00272e79</t>
   </si>
   <si>
     <t>Tipo de Equipo</t>
@@ -65,7 +62,7 @@
     <t>Caldera</t>
   </si>
   <si>
-    <t>Desc equip</t>
+    <t>As</t>
   </si>
   <si>
     <t>12/05/2016</t>
@@ -83,7 +80,7 @@
     <t>Ubicación Técnica/TAG</t>
   </si>
   <si>
-    <t>Diego calza</t>
+    <t>Diego Perez</t>
   </si>
   <si>
     <t>Empresa</t>
@@ -107,12 +104,6 @@
     <t>Hallazgos y Observaciones</t>
   </si>
   <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>Findings</t>
-  </si>
-  <si>
     <t>Registro de imágenes</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
   </si>
   <si>
     <t>Foto 1</t>
-  </si>
-  <si>
-    <t>Foto1 as found</t>
   </si>
   <si>
     <t>Foto 2</t>
@@ -153,9 +141,6 @@
   </si>
   <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Pieza</t>
   </si>
   <si>
     <t>C. Cómo es Dejado</t>
@@ -250,6 +235,9 @@
   </si>
   <si>
     <t>Foto 5</t>
+  </si>
+  <si>
+    <t>Ikja</t>
   </si>
   <si>
     <t>Foto 6</t>
@@ -737,8 +725,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -767,8 +755,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -833,76 +821,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1028700" cy="352425"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="4 Imagen" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1314450" cy="352425"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="5 Imagen" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1095375" cy="352425"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="4 Imagen" descr=""/>
@@ -942,6 +865,101 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1095375" cy="352425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="4 Imagen" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1314450" cy="352425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="5 Imagen" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Foto1 Anexo" descr="Foto1 Anexo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1252,7 +1270,7 @@
   <dimension ref="A1:AMK67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6446,9 +6464,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -6467,9 +6483,7 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
@@ -7469,7 +7483,7 @@
     <row r="7" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -7479,7 +7493,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -7500,7 +7514,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
@@ -8501,7 +8515,7 @@
     <row r="8" spans="1:1025" customHeight="1" ht="18">
       <c r="A8" s="5"/>
       <c r="B8" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -8511,7 +8525,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -8532,7 +8546,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
@@ -9533,7 +9547,7 @@
     <row r="9" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -9543,7 +9557,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -9554,7 +9568,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -9566,7 +9580,7 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
@@ -10567,7 +10581,7 @@
     <row r="10" spans="1:1025" customHeight="1" ht="20.25">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -10577,7 +10591,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -10588,7 +10602,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -10600,7 +10614,7 @@
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
@@ -12627,7 +12641,7 @@
     <row r="12" spans="1:1025" customHeight="1" ht="24" s="8" customFormat="1">
       <c r="A12" s="5"/>
       <c r="B12" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -12635,7 +12649,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -12675,7 +12689,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -12688,7 +12702,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -13706,9 +13720,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -13719,9 +13731,7 @@
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
@@ -16785,14 +16795,14 @@
     <row r="17" spans="1:1025" customHeight="1" ht="12.75" s="8" customFormat="1">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A18" s="3"/>
       <c r="B18" s="20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -16811,7 +16821,7 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -32186,12 +32196,10 @@
     <row r="33" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A33" s="3"/>
       <c r="B33" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C33" s="21"/>
-      <c r="D33" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -32207,7 +32215,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T33" s="21"/>
       <c r="U33" s="22"/>
@@ -34244,7 +34252,7 @@
     <row r="35" spans="1:1025" customHeight="1" ht="16.5">
       <c r="A35" s="3"/>
       <c r="B35" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -34252,7 +34260,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -35274,7 +35282,7 @@
     <row r="36" spans="1:1025" customHeight="1" ht="27" s="8" customFormat="1">
       <c r="A36" s="5"/>
       <c r="B36" s="23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -35282,7 +35290,7 @@
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -35290,14 +35298,14 @@
       <c r="L36" s="23"/>
       <c r="M36" s="23"/>
       <c r="N36" s="24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
       <c r="R36" s="26"/>
       <c r="S36" s="23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
@@ -35305,7 +35313,7 @@
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
       <c r="Y36" s="27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z36" s="27"/>
       <c r="AA36" s="27"/>
@@ -35321,9 +35329,7 @@
     </row>
     <row r="37" spans="1:1025" customHeight="1" ht="18">
       <c r="A37" s="3"/>
-      <c r="B37" s="28" t="s">
-        <v>39</v>
-      </c>
+      <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
@@ -35514,7 +35520,7 @@
     <row r="42" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A42" s="3"/>
       <c r="B42" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -35522,7 +35528,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
@@ -35562,7 +35568,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -35575,7 +35581,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
@@ -35796,7 +35802,7 @@
     <row r="49" spans="1:1025" customHeight="1" ht="16.5">
       <c r="A49" s="3"/>
       <c r="B49" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -35836,7 +35842,7 @@
     <row r="50" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A50" s="3"/>
       <c r="B50" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -35855,7 +35861,7 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
       <c r="S50" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
@@ -36410,7 +36416,7 @@
     <row r="65" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A65" s="3"/>
       <c r="B65" s="21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="22"/>
@@ -36429,7 +36435,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T65" s="21"/>
       <c r="U65" s="22"/>
@@ -36484,7 +36490,7 @@
       <c r="AF66"/>
       <c r="AG66" s="35"/>
       <c r="AH66" s="36" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AI66" s="36"/>
       <c r="AJ66" s="4"/>
@@ -36495,7 +36501,7 @@
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
@@ -36525,7 +36531,7 @@
       <c r="AE67" s="39"/>
       <c r="AF67" s="39"/>
       <c r="AG67" s="40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH67" s="40"/>
       <c r="AI67" s="40"/>
@@ -41788,7 +41794,7 @@
     <row r="5" spans="1:1025" customHeight="1" ht="15.75">
       <c r="A5" s="3"/>
       <c r="B5" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -41796,7 +41802,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -42818,7 +42824,7 @@
     <row r="6" spans="1:1025" customHeight="1" ht="27" s="8" customFormat="1">
       <c r="A6" s="5"/>
       <c r="B6" s="23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -42826,7 +42832,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -42835,7 +42841,7 @@
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
@@ -42844,14 +42850,14 @@
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
       <c r="V6" s="23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
       <c r="AA6" s="27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AB6" s="27"/>
       <c r="AC6" s="27"/>
@@ -43008,7 +43014,7 @@
     <row r="10" spans="1:1025" customHeight="1" ht="47.75">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -43016,7 +43022,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -43057,7 +43063,7 @@
     <row r="11" spans="1:1025" customHeight="1" ht="27.6">
       <c r="A11" s="3"/>
       <c r="B11" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -43065,7 +43071,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="44" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -43196,7 +43202,7 @@
     <row r="14" spans="1:1025" customHeight="1" ht="15">
       <c r="A14" s="3"/>
       <c r="B14" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -43204,14 +43210,14 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="45" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
@@ -43237,7 +43243,7 @@
       <c r="AI14" s="45"/>
       <c r="AJ14" s="45"/>
       <c r="AK14" s="27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AL14" s="27"/>
       <c r="AM14" s="27"/>
@@ -43254,7 +43260,9 @@
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="46">
+        <v>1</v>
+      </c>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
@@ -43384,7 +43392,7 @@
     <row r="18" spans="1:1025" customHeight="1" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -43566,7 +43574,7 @@
     <row r="22" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A22" s="3"/>
       <c r="B22" s="23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -43703,7 +43711,7 @@
     <row r="25" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A25" s="3"/>
       <c r="B25" s="23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -45724,7 +45732,7 @@
       <c r="AM69"/>
       <c r="AN69" s="35"/>
       <c r="AO69" s="51" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AP69" s="51"/>
       <c r="AQ69" s="4"/>
@@ -45734,7 +45742,7 @@
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
       <c r="D70" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="39"/>
@@ -45772,7 +45780,7 @@
       <c r="AL70" s="39"/>
       <c r="AM70" s="39"/>
       <c r="AN70" s="40" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AO70" s="40"/>
       <c r="AP70" s="40"/>
@@ -45863,7 +45871,7 @@
   <dimension ref="A1:AMK75"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47080,7 +47088,7 @@
     <row r="5" spans="1:1025" customHeight="1" ht="17.25">
       <c r="A5" s="3"/>
       <c r="B5" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -47088,7 +47096,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -47790,7 +47798,7 @@
       <c r="AO20" s="54"/>
       <c r="AP20"/>
     </row>
-    <row r="21" spans="1:1025" customHeight="1" ht="100.05">
+    <row r="21" spans="1:1025" customHeight="1" ht="115">
       <c r="A21" s="3"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -47837,11 +47845,13 @@
     <row r="22" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A22" s="3"/>
       <c r="B22" s="21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
@@ -47858,7 +47868,7 @@
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="V22" s="21"/>
       <c r="W22" s="22"/>
@@ -48542,7 +48552,7 @@
       <c r="AO37" s="4"/>
       <c r="AP37"/>
     </row>
-    <row r="38" spans="1:1025" customHeight="1" ht="68.45">
+    <row r="38" spans="1:1025" customHeight="1" ht="101.8">
       <c r="A38" s="3"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -48589,7 +48599,7 @@
     <row r="39" spans="1:1025" customHeight="1" ht="15">
       <c r="A39" s="3"/>
       <c r="B39" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -48610,7 +48620,7 @@
       <c r="S39" s="22"/>
       <c r="T39" s="22"/>
       <c r="U39" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="V39" s="21"/>
       <c r="W39" s="22"/>
@@ -49294,7 +49304,7 @@
       <c r="AO54" s="4"/>
       <c r="AP54"/>
     </row>
-    <row r="55" spans="1:1025" customHeight="1" ht="92.15000000000001">
+    <row r="55" spans="1:1025" customHeight="1" ht="112.35">
       <c r="A55" s="3"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -49341,7 +49351,7 @@
     <row r="56" spans="1:1025" customHeight="1" ht="17.25">
       <c r="A56" s="3"/>
       <c r="B56" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -49362,7 +49372,7 @@
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
       <c r="U56" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
@@ -50093,7 +50103,7 @@
     <row r="73" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A73" s="3"/>
       <c r="B73" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
@@ -50114,7 +50124,7 @@
       <c r="S73" s="22"/>
       <c r="T73" s="22"/>
       <c r="U73" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V73" s="21"/>
       <c r="W73" s="21"/>
@@ -50178,7 +50188,7 @@
       <c r="AK74"/>
       <c r="AL74"/>
       <c r="AM74" s="51" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AN74" s="51"/>
       <c r="AO74" s="4"/>
@@ -50189,7 +50199,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
@@ -50224,7 +50234,7 @@
       <c r="AJ75" s="39"/>
       <c r="AK75" s="39"/>
       <c r="AL75" s="40" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AM75" s="40"/>
       <c r="AN75" s="40"/>

--- a/public/ReportTechOut.xlsx
+++ b/public/ReportTechOut.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>INFORME TECNICO</t>
   </si>
@@ -110,7 +110,7 @@
     <t>Foto 1</t>
   </si>
   <si>
-    <t>Ceiling</t>
+    <t>Jjaja</t>
   </si>
   <si>
     <t>Foto 2</t>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Foto 3</t>
-  </si>
-  <si>
-    <t>Joistick</t>
   </si>
   <si>
     <t>Foto 4</t>
@@ -235,9 +232,6 @@
   </si>
   <si>
     <t>Foto 5</t>
-  </si>
-  <si>
-    <t>Fondo</t>
   </si>
   <si>
     <t>Foto 6</t>
@@ -726,11 +720,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:ext cx="2466975" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Foto1 As Found" descr="Foto1 As Found 1"/>
@@ -740,36 +734,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4381500" cy="3286125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Foto1 As Left" descr="Foto1 As Left"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -900,66 +864,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4381500" cy="3286125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Foto1 Anexo" descr="Foto1 Anexo"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4381500" cy="3286125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Foto2 Anexo" descr="Foto2 Anexo"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -36419,9 +36323,7 @@
         <v>37</v>
       </c>
       <c r="C65" s="24"/>
-      <c r="D65" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
       <c r="G65" s="25"/>
@@ -36437,7 +36339,7 @@
       <c r="Q65" s="25"/>
       <c r="R65" s="25"/>
       <c r="S65" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T65" s="24"/>
       <c r="U65" s="25"/>
@@ -36492,7 +36394,7 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="10"/>
       <c r="AH66" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI66" s="26"/>
       <c r="AJ66" s="3"/>
@@ -36503,7 +36405,7 @@
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
@@ -36533,7 +36435,7 @@
       <c r="AE67" s="22"/>
       <c r="AF67" s="22"/>
       <c r="AG67" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH67" s="23"/>
       <c r="AI67" s="23"/>
@@ -41796,7 +41698,7 @@
     <row r="5" spans="1:1025" customHeight="1" ht="15.75">
       <c r="A5" s="2"/>
       <c r="B5" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -41804,7 +41706,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
       <c r="H5" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
@@ -42826,7 +42728,7 @@
     <row r="6" spans="1:1025" customHeight="1" ht="27" s="6" customFormat="1">
       <c r="A6" s="4"/>
       <c r="B6" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -42834,7 +42736,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
@@ -42852,7 +42754,7 @@
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
       <c r="V6" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
@@ -43016,7 +42918,7 @@
     <row r="10" spans="1:1025" customHeight="1" ht="47.85">
       <c r="A10" s="2"/>
       <c r="B10" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -43024,7 +42926,7 @@
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
@@ -43065,7 +42967,7 @@
     <row r="11" spans="1:1025" customHeight="1" ht="27.6">
       <c r="A11" s="2"/>
       <c r="B11" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -43073,7 +42975,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
@@ -43204,7 +43106,7 @@
     <row r="14" spans="1:1025" customHeight="1" ht="15">
       <c r="A14" s="2"/>
       <c r="B14" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -43212,14 +43114,14 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
@@ -43245,7 +43147,7 @@
       <c r="AI14" s="53"/>
       <c r="AJ14" s="53"/>
       <c r="AK14" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL14" s="27"/>
       <c r="AM14" s="27"/>
@@ -43392,7 +43294,7 @@
     <row r="18" spans="1:1025" customHeight="1" ht="15">
       <c r="A18" s="2"/>
       <c r="B18" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -43574,7 +43476,7 @@
     <row r="22" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A22" s="2"/>
       <c r="B22" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -43711,7 +43613,7 @@
     <row r="25" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A25" s="2"/>
       <c r="B25" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -45732,7 +45634,7 @@
       <c r="AM69" s="1"/>
       <c r="AN69" s="10"/>
       <c r="AO69" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AP69" s="50"/>
       <c r="AQ69" s="3"/>
@@ -45742,7 +45644,7 @@
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -45780,7 +45682,7 @@
       <c r="AL70" s="22"/>
       <c r="AM70" s="22"/>
       <c r="AN70" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO70" s="23"/>
       <c r="AP70" s="23"/>
@@ -47088,7 +46990,7 @@
     <row r="5" spans="1:1025" customHeight="1" ht="17.25">
       <c r="A5" s="2"/>
       <c r="B5" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -47096,7 +46998,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
       <c r="H5" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
@@ -47845,13 +47747,11 @@
     <row r="22" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A22" s="2"/>
       <c r="B22" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="25" t="s">
-        <v>63</v>
-      </c>
+      <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
@@ -47868,7 +47768,7 @@
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V22" s="24"/>
       <c r="W22" s="25"/>
@@ -48599,7 +48499,7 @@
     <row r="39" spans="1:1025" customHeight="1" ht="15">
       <c r="A39" s="2"/>
       <c r="B39" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -48620,7 +48520,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
       <c r="U39" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V39" s="24"/>
       <c r="W39" s="25"/>
@@ -49351,7 +49251,7 @@
     <row r="56" spans="1:1025" customHeight="1" ht="17.25">
       <c r="A56" s="2"/>
       <c r="B56" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -49372,7 +49272,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
       <c r="U56" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V56" s="24"/>
       <c r="W56" s="24"/>
@@ -50103,7 +50003,7 @@
     <row r="73" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A73" s="2"/>
       <c r="B73" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -50124,7 +50024,7 @@
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
       <c r="U73" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V73" s="24"/>
       <c r="W73" s="24"/>
@@ -50188,7 +50088,7 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
       <c r="AM74" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AN74" s="50"/>
       <c r="AO74" s="3"/>
@@ -50199,7 +50099,7 @@
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
@@ -50234,7 +50134,7 @@
       <c r="AJ75" s="22"/>
       <c r="AK75" s="22"/>
       <c r="AL75" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AM75" s="23"/>
       <c r="AN75" s="23"/>
